--- a/@ExcelTest/battle/UnitSetting.xlsx
+++ b/@ExcelTest/battle/UnitSetting.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cc/Documents/eyu/slg/number/trunk/battle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cc/github/TableConvert/@ExcelTest/battle/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3037B7-B486-D648-80C5-7D2DC5959153}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25100" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="2920" yWindow="2460" windowWidth="25100" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置说明" sheetId="15" r:id="rId1"/>
     <sheet name="测试数据" sheetId="13" r:id="rId2"/>
     <sheet name="方阵测试数据" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="233">
   <si>
     <t>种类</t>
   </si>
@@ -720,14 +721,26 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Ref": ["SkillSetting"]}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -739,6 +752,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -746,6 +760,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -753,6 +768,7 @@
       <sz val="11"/>
       <color theme="5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -760,12 +776,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -816,14 +834,17 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1086,16 +1107,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1137,7 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1131,7 +1152,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1152,7 +1173,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1169,7 +1190,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1211,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1211,7 +1232,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1228,7 +1249,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1249,7 +1270,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1266,7 +1287,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1287,7 +1308,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1308,7 +1329,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1329,7 +1350,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1348,7 +1369,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1369,7 +1390,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -1390,7 +1411,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1409,7 +1430,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1430,7 +1451,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1445,7 +1466,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -1466,7 +1487,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1485,7 +1506,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -1506,7 +1527,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1527,7 +1548,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -1548,7 +1569,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
@@ -1569,7 +1590,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -1590,7 +1611,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
@@ -1611,7 +1632,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27" s="5" t="s">
         <v>60</v>
       </c>
@@ -1632,7 +1653,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="A28" s="5" t="s">
         <v>63</v>
       </c>
@@ -1653,7 +1674,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1670,7 +1691,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17">
       <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
@@ -1691,7 +1712,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="A31" s="5" t="s">
         <v>70</v>
       </c>
@@ -1710,7 +1731,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="A32" s="5" t="s">
         <v>72</v>
       </c>
@@ -1724,7 +1745,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="5" t="s">
         <v>74</v>
       </c>
@@ -1738,7 +1759,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="5" t="s">
         <v>76</v>
       </c>
@@ -1752,7 +1773,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="5" t="s">
         <v>78</v>
       </c>
@@ -1766,7 +1787,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1778,7 +1799,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="5" t="s">
         <v>29</v>
       </c>
@@ -1792,7 +1813,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="5" t="s">
         <v>82</v>
       </c>
@@ -1804,7 +1825,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1816,47 +1837,47 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="H40" s="6" t="s">
         <v>84</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="H41" s="6" t="s">
         <v>85</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="H42" s="6" t="s">
         <v>86</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="H43" s="6" t="s">
         <v>87</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="H44" s="6" t="s">
         <v>88</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -1868,27 +1889,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="12.59765625" customWidth="1"/>
-    <col min="6" max="6" width="71.3984375" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" customWidth="1"/>
-    <col min="8" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="11" width="14.796875" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="71.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="11" width="14.83203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
@@ -1926,7 +1947,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="15">
       <c r="A2" s="2" t="s">
         <v>98</v>
       </c>
@@ -1952,7 +1973,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="15">
       <c r="A3" s="2" t="s">
         <v>102</v>
       </c>
@@ -1976,7 +1997,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A4" s="2" t="s">
         <v>107</v>
       </c>
@@ -2014,7 +2035,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="B5">
         <v>1</v>
       </c>
@@ -2037,7 +2058,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="B6">
         <v>2</v>
       </c>
@@ -2054,7 +2075,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="B7">
         <v>3</v>
       </c>
@@ -2071,7 +2092,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="B8">
         <v>4</v>
       </c>
@@ -2088,7 +2109,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="B9">
         <v>5</v>
       </c>
@@ -2105,7 +2126,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="B10">
         <v>6</v>
       </c>
@@ -2122,7 +2143,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="B11">
         <v>7</v>
       </c>
@@ -2139,7 +2160,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="B12">
         <v>8</v>
       </c>
@@ -2156,7 +2177,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="B13">
         <v>9</v>
       </c>
@@ -2173,7 +2194,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="B14">
         <v>10</v>
       </c>
@@ -2190,7 +2211,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="B15">
         <v>11</v>
       </c>
@@ -2207,7 +2228,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="B16">
         <v>12</v>
       </c>
@@ -2224,7 +2245,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="B17">
         <v>13</v>
       </c>
@@ -2241,7 +2262,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6">
       <c r="B18">
         <v>14</v>
       </c>
@@ -2258,7 +2279,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6">
       <c r="B19">
         <v>15</v>
       </c>
@@ -2275,7 +2296,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6">
       <c r="B20">
         <v>16</v>
       </c>
@@ -2292,7 +2313,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6">
       <c r="B21">
         <v>17</v>
       </c>
@@ -2309,7 +2330,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6">
       <c r="B22">
         <v>18</v>
       </c>
@@ -2326,7 +2347,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6">
       <c r="B23">
         <v>19</v>
       </c>
@@ -2343,7 +2364,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6">
       <c r="B24">
         <v>20</v>
       </c>
@@ -2360,7 +2381,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6">
       <c r="B25">
         <v>21</v>
       </c>
@@ -2377,7 +2398,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6">
       <c r="B26">
         <v>22</v>
       </c>
@@ -2394,7 +2415,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6">
       <c r="B27">
         <v>23</v>
       </c>
@@ -2411,7 +2432,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6">
       <c r="B28">
         <v>24</v>
       </c>
@@ -2428,7 +2449,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6">
       <c r="B29">
         <v>25</v>
       </c>
@@ -2445,7 +2466,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6">
       <c r="B30">
         <v>26</v>
       </c>
@@ -2462,7 +2483,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6">
       <c r="B31">
         <v>27</v>
       </c>
@@ -2479,7 +2500,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6">
       <c r="B32">
         <v>28</v>
       </c>
@@ -2496,7 +2517,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12">
       <c r="B33">
         <v>33</v>
       </c>
@@ -2513,7 +2534,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12">
       <c r="B34">
         <v>1001</v>
       </c>
@@ -2539,7 +2560,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12">
       <c r="B35">
         <v>1101</v>
       </c>
@@ -2565,7 +2586,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12">
       <c r="B36">
         <v>1201</v>
       </c>
@@ -2594,7 +2615,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12">
       <c r="B37">
         <v>1301</v>
       </c>
@@ -2620,7 +2641,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>205</v>
       </c>
@@ -2657,26 +2678,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" customWidth="1"/>
-    <col min="6" max="6" width="43.796875" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" customWidth="1"/>
-    <col min="8" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="11" width="14.796875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="11" width="14.83203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
@@ -2712,7 +2734,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="2" t="s">
         <v>98</v>
       </c>
@@ -2732,13 +2754,15 @@
         <v>101</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="15">
       <c r="A3" s="2" t="s">
         <v>102</v>
       </c>
@@ -2756,13 +2780,15 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" s="2" t="s">
         <v>107</v>
       </c>
@@ -2800,120 +2826,118 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5">
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B6">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>214</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="B7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>211</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="B8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="B9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="B10">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>220</v>
@@ -2925,43 +2949,63 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>205</v>
-      </c>
+    <row r="11" spans="1:12">
       <c r="B11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>220</v>
       </c>
       <c r="F11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
       <c r="B12">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13">
         <v>107</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>227</v>
       </c>
     </row>
